--- a/Budget/web_free_2014.xlsx
+++ b/Budget/web_free_2014.xlsx
@@ -428,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -437,95 +439,95 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
         <v>2772</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>967</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8938</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4066</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>453</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>287</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>192</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>658</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6965</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5764</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4517</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4302</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -546,11 +548,11 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>317</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -560,104 +562,104 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>27</v>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
         <v>13156</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14562</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15789</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>13450</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>18238</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>23965</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>11603</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10330</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20719</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>26292</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>32476</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>30547</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
         <v>1207</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1922</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>18283</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7939</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2038</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>13779</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5772</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1103</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6290</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8531</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6029</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5515</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -678,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2510</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
@@ -692,16 +694,16 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>27</v>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -722,11 +724,11 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1078</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -736,60 +738,60 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
         <v>27999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>28482</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30310</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>28648</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>37216</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>44629</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>33391</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>29831</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>51636</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>54333</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>64035</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>64777</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -810,30 +812,30 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>2092</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>23152</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>25724</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>34300</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>38423</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -854,30 +856,30 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>12399</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>89457</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>100676</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>109202</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>116564</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -898,55 +900,55 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>139</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1586</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1787</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>733</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>483</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
         <v>39944</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>80849</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>104623</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>97461</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>90880</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>105190</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>90445</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>80735</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
@@ -956,148 +958,148 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>27</v>
+      <c r="N12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
         <v>6144</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>6527</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5531</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4655</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5880</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6895</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4805</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3804</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4730</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4693</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>6700</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>7852</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
         <v>1224</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>889</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1639</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>785</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>721</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1929</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>649</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>425</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1459</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1389</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1433</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1560</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>2236</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>616</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6870</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2272</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>108</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>66</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>89</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>456</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4179</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2757</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>902</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>787</v>
-      </c>
-      <c r="N15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>28</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1118,11 +1120,11 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>75</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
@@ -1132,104 +1134,104 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" t="s">
-        <v>28</v>
+      <c r="N16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>4554</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4923</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5334</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4708</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5837</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8482</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3791</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3556</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6890</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>8513</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>10840</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>9851</v>
-      </c>
-      <c r="N17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
         <v>803</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>940</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>11302</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4266</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>538</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6739</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2696</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>222</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2074</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3348</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1311</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1767</v>
-      </c>
-      <c r="N18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1250,11 +1252,11 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>1558</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
@@ -1264,16 +1266,16 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" t="s">
-        <v>28</v>
+      <c r="N19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1294,11 +1296,11 @@
         <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>441</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -1308,60 +1310,60 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" t="s">
-        <v>28</v>
+      <c r="N20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
         <v>11250</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>10728</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>11037</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>11421</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>13839</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>16916</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13795</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>13382</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>19338</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20056</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>22969</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>23829</v>
-      </c>
-      <c r="N21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1382,30 +1384,30 @@
         <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>670</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6962</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6947</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>8590</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10191</v>
-      </c>
-      <c r="N22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>28</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1426,30 +1428,30 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>7619</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>53619</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>60439</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>63365</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>69176</v>
-      </c>
-      <c r="N23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1470,55 +1472,55 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>72</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>633</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>586</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>55</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>56</v>
-      </c>
-      <c r="N24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
         <v>21798</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>50474</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>63576</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>58354</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>51242</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>57378</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>52210</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>47764</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
@@ -1528,148 +1530,148 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" t="s">
-        <v>28</v>
+      <c r="N25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
         <v>3329</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3403</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2662</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2233</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2573</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2722</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2007</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1813</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2133</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2138</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2651</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2860</v>
-      </c>
-      <c r="N26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
         <v>680</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>498</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1123</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>413</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>382</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1167</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>293</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>181</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>879</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>771</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>619</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>544</v>
-      </c>
-      <c r="N27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>14</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>103</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>52</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>20</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9</v>
-      </c>
-      <c r="N28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1690,11 +1692,11 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
@@ -1704,104 +1706,104 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>29</v>
+      <c r="N29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>107</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>109</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>99</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>167</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>289</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>88</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>96</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>285</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>472</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>649</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>476</v>
-      </c>
-      <c r="N30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>79</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>48</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>14</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>138</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>76</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>45</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>26</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>22</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>17</v>
-      </c>
-      <c r="N31" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>29</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1822,11 +1824,11 @@
         <v>0</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>68</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0</v>
       </c>
@@ -1836,16 +1838,16 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>29</v>
+      <c r="N32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>29</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1866,11 +1868,11 @@
         <v>0</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>19</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
@@ -1880,60 +1882,60 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
-        <v>29</v>
+      <c r="N33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
         <v>562</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>584</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>669</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>610</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>885</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1212</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>832</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>681</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1707</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1420</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2201</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1959</v>
-      </c>
-      <c r="N34" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>29</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1954,30 +1956,30 @@
         <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>82</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1145</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1040</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1714</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1509</v>
-      </c>
-      <c r="N35" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>29</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1998,30 +2000,30 @@
         <v>0</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>355</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>3063</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>2958</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3113</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>3553</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>29</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2042,55 +2044,55 @@
         <v>0</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>2</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>41</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>27</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>7</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>6</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
         <v>1021</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>2085</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>2589</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2552</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2386</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2815</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2709</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2266</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
         <v>0</v>
       </c>
@@ -2100,96 +2102,96 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
-        <v>29</v>
+      <c r="N38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
         <v>182</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>152</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>169</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>120</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>136</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>148</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>128</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>116</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>122</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>104</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>179</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>176</v>
-      </c>
-      <c r="N39" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
         <v>31</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>21</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>45</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>17</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>22</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>55</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>11</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>8</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>58</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>26</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>74</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>47</v>
-      </c>
-      <c r="N40" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
